--- a/needs.xlsx
+++ b/needs.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Потребность в материалах на 29.06.2018</t>
+    <t>Потребность в материалах на 03.07.2018</t>
   </si>
   <si>
     <t>#</t>

--- a/needs.xlsx
+++ b/needs.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Потребность в материалах на 03.07.2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Потребность в материалах на 11.07.2018</t>
   </si>
   <si>
     <t>#</t>
@@ -25,67 +25,79 @@
     <t>Количество</t>
   </si>
   <si>
+    <t>Бумага А4</t>
+  </si>
+  <si>
+    <t>10 упаковок</t>
+  </si>
+  <si>
+    <t>Шариковые ручки</t>
+  </si>
+  <si>
+    <t>30 штук</t>
+  </si>
+  <si>
+    <t>Карандаши</t>
+  </si>
+  <si>
+    <t>15 штук</t>
+  </si>
+  <si>
+    <t>Скоросшиватели</t>
+  </si>
+  <si>
+    <t>10 штук</t>
+  </si>
+  <si>
+    <t>Бумага А3</t>
+  </si>
+  <si>
+    <t>5 упаковок</t>
+  </si>
+  <si>
+    <t>Лампа в настенном светильнике</t>
+  </si>
+  <si>
+    <t>1 штук</t>
+  </si>
+  <si>
     <t>Лампа в потолочном светильнике</t>
   </si>
   <si>
-    <t>1 штук</t>
-  </si>
-  <si>
-    <t>Выключатель</t>
-  </si>
-  <si>
-    <t>Починить тумбу</t>
+    <t>2 штук</t>
+  </si>
+  <si>
+    <t>Дырокол</t>
+  </si>
+  <si>
+    <t>3 штук</t>
+  </si>
+  <si>
+    <t>Скотч</t>
   </si>
   <si>
     <t>Офисное кресло</t>
   </si>
   <si>
-    <t>Дырокол</t>
-  </si>
-  <si>
-    <t>2 штук</t>
-  </si>
-  <si>
     <t>Офисный стол</t>
   </si>
   <si>
-    <t>Лампа в настенном светильнике</t>
-  </si>
-  <si>
-    <t>Карандаши</t>
-  </si>
-  <si>
-    <t>15 штук</t>
-  </si>
-  <si>
-    <t>Бумага А3</t>
-  </si>
-  <si>
-    <t>2 упаковок</t>
-  </si>
-  <si>
-    <t>Бумага А4</t>
-  </si>
-  <si>
-    <t>10 упаковок</t>
-  </si>
-  <si>
     <t>Дверной замок</t>
   </si>
   <si>
-    <t>Скоросшиватели</t>
-  </si>
-  <si>
-    <t>5 штук</t>
-  </si>
-  <si>
     <t>Дверная ручка</t>
   </si>
   <si>
-    <t>Шариковые ручки</t>
-  </si>
-  <si>
-    <t>30 штук</t>
+    <t>4 штук</t>
+  </si>
+  <si>
+    <t>Жалюзи</t>
+  </si>
+  <si>
+    <t>Дверца шкафа</t>
+  </si>
+  <si>
+    <t>тестовое наименование</t>
   </si>
 </sst>
 </file>
@@ -152,7 +164,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -200,7 +212,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -208,10 +220,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -219,10 +231,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -230,10 +242,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -241,10 +253,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -252,10 +264,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -263,10 +275,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -274,10 +286,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -285,10 +297,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -296,10 +308,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -307,10 +319,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -318,10 +330,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -329,10 +341,32 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/needs.xlsx
+++ b/needs.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Потребность в материалах на 11.07.2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Потребность в материалах на 12.07.2018</t>
   </si>
   <si>
     <t>#</t>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>тестовое наименование</t>
+  </si>
+  <si>
+    <t>Перенос мебели</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -369,6 +372,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/needs.xlsx
+++ b/needs.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Потребность в материалах на 12.07.2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Потребность в материалах на 13.08.2018</t>
   </si>
   <si>
     <t>#</t>
@@ -25,22 +25,91 @@
     <t>Количество</t>
   </si>
   <si>
+    <t>Ремонт электрообогревателя</t>
+  </si>
+  <si>
+    <t>1 штук</t>
+  </si>
+  <si>
+    <t>Ремонт выключателей</t>
+  </si>
+  <si>
+    <t>2 штук</t>
+  </si>
+  <si>
+    <t>Ремонт розеток</t>
+  </si>
+  <si>
+    <t>4 штук</t>
+  </si>
+  <si>
+    <t>Дверная ручка</t>
+  </si>
+  <si>
+    <t>5 штук</t>
+  </si>
+  <si>
+    <t>Опять что-то новое</t>
+  </si>
+  <si>
+    <t>3 штук</t>
+  </si>
+  <si>
+    <t>Ремонт светильника</t>
+  </si>
+  <si>
+    <t>Шариковые ручки</t>
+  </si>
+  <si>
+    <t>30 штук</t>
+  </si>
+  <si>
+    <t>Офисное кресло</t>
+  </si>
+  <si>
+    <t>Дверной замок</t>
+  </si>
+  <si>
+    <t>Перенос мебели</t>
+  </si>
+  <si>
+    <t>Ремонт настольной лампы</t>
+  </si>
+  <si>
+    <t>Карандаши</t>
+  </si>
+  <si>
+    <t>15 штук</t>
+  </si>
+  <si>
     <t>Бумага А4</t>
   </si>
   <si>
     <t>10 упаковок</t>
   </si>
   <si>
-    <t>Шариковые ручки</t>
-  </si>
-  <si>
-    <t>30 штук</t>
-  </si>
-  <si>
-    <t>Карандаши</t>
-  </si>
-  <si>
-    <t>15 штук</t>
+    <t>Еще новое</t>
+  </si>
+  <si>
+    <t>Бумага А3</t>
+  </si>
+  <si>
+    <t>8 упаковок</t>
+  </si>
+  <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
+    <t>Дырокол</t>
+  </si>
+  <si>
+    <t>тестовое наименование</t>
+  </si>
+  <si>
+    <t>Лампа в настенном светильнике</t>
+  </si>
+  <si>
+    <t>Жалюзи</t>
   </si>
   <si>
     <t>Скоросшиватели</t>
@@ -49,58 +118,19 @@
     <t>10 штук</t>
   </si>
   <si>
-    <t>Бумага А3</t>
-  </si>
-  <si>
-    <t>5 упаковок</t>
-  </si>
-  <si>
-    <t>Лампа в настенном светильнике</t>
-  </si>
-  <si>
-    <t>1 штук</t>
+    <t>Скотч</t>
+  </si>
+  <si>
+    <t>Дверца шкафа</t>
   </si>
   <si>
     <t>Лампа в потолочном светильнике</t>
   </si>
   <si>
-    <t>2 штук</t>
-  </si>
-  <si>
-    <t>Дырокол</t>
-  </si>
-  <si>
-    <t>3 штук</t>
-  </si>
-  <si>
-    <t>Скотч</t>
-  </si>
-  <si>
-    <t>Офисное кресло</t>
-  </si>
-  <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
-    <t>Дверной замок</t>
-  </si>
-  <si>
-    <t>Дверная ручка</t>
-  </si>
-  <si>
-    <t>4 штук</t>
-  </si>
-  <si>
-    <t>Жалюзи</t>
-  </si>
-  <si>
-    <t>Дверца шкафа</t>
-  </si>
-  <si>
-    <t>тестовое наименование</t>
-  </si>
-  <si>
-    <t>Перенос мебели</t>
+    <t>Перенос компьютерной техники</t>
+  </si>
+  <si>
+    <t>Другое новое</t>
   </si>
 </sst>
 </file>
@@ -167,7 +197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -259,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -267,10 +297,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -278,10 +308,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -289,10 +319,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -300,10 +330,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -311,10 +341,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -322,10 +352,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -333,10 +363,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -344,10 +374,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -355,10 +385,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -369,7 +399,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -380,7 +410,106 @@
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
